--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Adam9-Itgav.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Adam9-Itgav.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.23103074181342</v>
+        <v>10.36733066666667</v>
       </c>
       <c r="H2">
-        <v>9.23103074181342</v>
+        <v>31.101992</v>
       </c>
       <c r="I2">
-        <v>0.1084244385164053</v>
+        <v>0.1169328841728879</v>
       </c>
       <c r="J2">
-        <v>0.1084244385164053</v>
+        <v>0.1169328841728879</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N2">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O2">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P2">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q2">
-        <v>91.78689827968772</v>
+        <v>159.2301798479804</v>
       </c>
       <c r="R2">
-        <v>91.78689827968772</v>
+        <v>1433.071618631824</v>
       </c>
       <c r="S2">
-        <v>0.007544081772134077</v>
+        <v>0.01183410855291189</v>
       </c>
       <c r="T2">
-        <v>0.007544081772134077</v>
+        <v>0.01183410855291189</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.23103074181342</v>
+        <v>10.36733066666667</v>
       </c>
       <c r="H3">
-        <v>9.23103074181342</v>
+        <v>31.101992</v>
       </c>
       <c r="I3">
-        <v>0.1084244385164053</v>
+        <v>0.1169328841728879</v>
       </c>
       <c r="J3">
-        <v>0.1084244385164053</v>
+        <v>0.1169328841728879</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N3">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O3">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P3">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q3">
-        <v>466.8383879901813</v>
+        <v>524.5098471740497</v>
       </c>
       <c r="R3">
-        <v>466.8383879901813</v>
+        <v>4720.588624566447</v>
       </c>
       <c r="S3">
-        <v>0.03837004016235034</v>
+        <v>0.0389819723525713</v>
       </c>
       <c r="T3">
-        <v>0.03837004016235034</v>
+        <v>0.03898197235257131</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.23103074181342</v>
+        <v>10.36733066666667</v>
       </c>
       <c r="H4">
-        <v>9.23103074181342</v>
+        <v>31.101992</v>
       </c>
       <c r="I4">
-        <v>0.1084244385164053</v>
+        <v>0.1169328841728879</v>
       </c>
       <c r="J4">
-        <v>0.1084244385164053</v>
+        <v>0.1169328841728879</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N4">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O4">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P4">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q4">
-        <v>526.07006672672</v>
+        <v>625.9499478764711</v>
       </c>
       <c r="R4">
-        <v>526.07006672672</v>
+        <v>5633.549530888239</v>
       </c>
       <c r="S4">
-        <v>0.04323836708334087</v>
+        <v>0.0465210780954453</v>
       </c>
       <c r="T4">
-        <v>0.04323836708334087</v>
+        <v>0.0465210780954453</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.23103074181342</v>
+        <v>10.36733066666667</v>
       </c>
       <c r="H5">
-        <v>9.23103074181342</v>
+        <v>31.101992</v>
       </c>
       <c r="I5">
-        <v>0.1084244385164053</v>
+        <v>0.1169328841728879</v>
       </c>
       <c r="J5">
-        <v>0.1084244385164053</v>
+        <v>0.1169328841728879</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.4009382448175</v>
+        <v>25.43221733333333</v>
       </c>
       <c r="N5">
-        <v>25.4009382448175</v>
+        <v>76.29665199999999</v>
       </c>
       <c r="O5">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966257</v>
       </c>
       <c r="P5">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966258</v>
       </c>
       <c r="Q5">
-        <v>234.4768418088146</v>
+        <v>263.6642066811982</v>
       </c>
       <c r="R5">
-        <v>234.4768418088146</v>
+        <v>2372.977860130783</v>
       </c>
       <c r="S5">
-        <v>0.01927194949858002</v>
+        <v>0.01959572517195942</v>
       </c>
       <c r="T5">
-        <v>0.01927194949858002</v>
+        <v>0.01959572517195942</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>37.8563825880878</v>
+        <v>37.91490933333333</v>
       </c>
       <c r="H6">
-        <v>37.8563825880878</v>
+        <v>113.744728</v>
       </c>
       <c r="I6">
-        <v>0.4446477474918807</v>
+        <v>0.4276413904453658</v>
       </c>
       <c r="J6">
-        <v>0.4446477474918807</v>
+        <v>0.4276413904453659</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N6">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O6">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P6">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q6">
-        <v>376.4173292274351</v>
+        <v>582.3290513417795</v>
       </c>
       <c r="R6">
-        <v>376.4173292274351</v>
+        <v>5240.961462076016</v>
       </c>
       <c r="S6">
-        <v>0.03093821847522339</v>
+        <v>0.04327913975649651</v>
       </c>
       <c r="T6">
-        <v>0.03093821847522339</v>
+        <v>0.04327913975649653</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>37.8563825880878</v>
+        <v>37.91490933333333</v>
       </c>
       <c r="H7">
-        <v>37.8563825880878</v>
+        <v>113.744728</v>
       </c>
       <c r="I7">
-        <v>0.4446477474918807</v>
+        <v>0.4276413904453658</v>
       </c>
       <c r="J7">
-        <v>0.4446477474918807</v>
+        <v>0.4276413904453659</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N7">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O7">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P7">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q7">
-        <v>1914.500462284311</v>
+        <v>1918.21250227747</v>
       </c>
       <c r="R7">
-        <v>1914.500462284311</v>
+        <v>17263.91252049723</v>
       </c>
       <c r="S7">
-        <v>0.1573552251025087</v>
+        <v>0.1425630178975914</v>
       </c>
       <c r="T7">
-        <v>0.1573552251025087</v>
+        <v>0.1425630178975914</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>37.8563825880878</v>
+        <v>37.91490933333333</v>
       </c>
       <c r="H8">
-        <v>37.8563825880878</v>
+        <v>113.744728</v>
       </c>
       <c r="I8">
-        <v>0.4446477474918807</v>
+        <v>0.4276413904453658</v>
       </c>
       <c r="J8">
-        <v>0.4446477474918807</v>
+        <v>0.4276413904453659</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N8">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O8">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P8">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q8">
-        <v>2157.409098849486</v>
+        <v>2289.194420821129</v>
       </c>
       <c r="R8">
-        <v>2157.409098849486</v>
+        <v>20602.74978739016</v>
       </c>
       <c r="S8">
-        <v>0.1773201945235401</v>
+        <v>0.1701346773619254</v>
       </c>
       <c r="T8">
-        <v>0.1773201945235401</v>
+        <v>0.1701346773619254</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>37.8563825880878</v>
+        <v>37.91490933333333</v>
       </c>
       <c r="H9">
-        <v>37.8563825880878</v>
+        <v>113.744728</v>
       </c>
       <c r="I9">
-        <v>0.4446477474918807</v>
+        <v>0.4276413904453658</v>
       </c>
       <c r="J9">
-        <v>0.4446477474918807</v>
+        <v>0.4276413904453659</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.4009382448175</v>
+        <v>25.43221733333333</v>
       </c>
       <c r="N9">
-        <v>25.4009382448175</v>
+        <v>76.29665199999999</v>
       </c>
       <c r="O9">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966257</v>
       </c>
       <c r="P9">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966258</v>
       </c>
       <c r="Q9">
-        <v>961.5876362922025</v>
+        <v>964.2602143389616</v>
       </c>
       <c r="R9">
-        <v>961.5876362922025</v>
+        <v>8678.341929050655</v>
       </c>
       <c r="S9">
-        <v>0.07903410939060855</v>
+        <v>0.07166455542935248</v>
       </c>
       <c r="T9">
-        <v>0.07903410939060855</v>
+        <v>0.0716645554293525</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>24.9010641635131</v>
+        <v>26.72147866666667</v>
       </c>
       <c r="H10">
-        <v>24.9010641635131</v>
+        <v>80.16443599999999</v>
       </c>
       <c r="I10">
-        <v>0.2924791365020958</v>
+        <v>0.3013909433702152</v>
       </c>
       <c r="J10">
-        <v>0.2924791365020958</v>
+        <v>0.3013909433702153</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N10">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O10">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P10">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q10">
-        <v>247.5987251433802</v>
+        <v>410.4109332190657</v>
       </c>
       <c r="R10">
-        <v>247.5987251433802</v>
+        <v>3693.698398971591</v>
       </c>
       <c r="S10">
-        <v>0.02035045375938119</v>
+        <v>0.0305020539426207</v>
       </c>
       <c r="T10">
-        <v>0.02035045375938119</v>
+        <v>0.03050205394262072</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>24.9010641635131</v>
+        <v>26.72147866666667</v>
       </c>
       <c r="H11">
-        <v>24.9010641635131</v>
+        <v>80.16443599999999</v>
       </c>
       <c r="I11">
-        <v>0.2924791365020958</v>
+        <v>0.3013909433702152</v>
       </c>
       <c r="J11">
-        <v>0.2924791365020958</v>
+        <v>0.3013909433702153</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N11">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O11">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P11">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q11">
-        <v>1259.314693935345</v>
+        <v>1351.908137432287</v>
       </c>
       <c r="R11">
-        <v>1259.314693935345</v>
+        <v>12167.17323689058</v>
       </c>
       <c r="S11">
-        <v>0.1035046744792405</v>
+        <v>0.100474845077816</v>
       </c>
       <c r="T11">
-        <v>0.1035046744792405</v>
+        <v>0.100474845077816</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>24.9010641635131</v>
+        <v>26.72147866666667</v>
       </c>
       <c r="H12">
-        <v>24.9010641635131</v>
+        <v>80.16443599999999</v>
       </c>
       <c r="I12">
-        <v>0.2924791365020958</v>
+        <v>0.3013909433702152</v>
       </c>
       <c r="J12">
-        <v>0.2924791365020958</v>
+        <v>0.3013909433702153</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N12">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O12">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P12">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q12">
-        <v>1419.094449196067</v>
+        <v>1613.366903822325</v>
       </c>
       <c r="R12">
-        <v>1419.094449196067</v>
+        <v>14520.30213440092</v>
       </c>
       <c r="S12">
-        <v>0.1166371755421423</v>
+        <v>0.1199066602432837</v>
       </c>
       <c r="T12">
-        <v>0.1166371755421423</v>
+        <v>0.1199066602432837</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>24.9010641635131</v>
+        <v>26.72147866666667</v>
       </c>
       <c r="H13">
-        <v>24.9010641635131</v>
+        <v>80.16443599999999</v>
       </c>
       <c r="I13">
-        <v>0.2924791365020958</v>
+        <v>0.3013909433702152</v>
       </c>
       <c r="J13">
-        <v>0.2924791365020958</v>
+        <v>0.3013909433702153</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.4009382448175</v>
+        <v>25.43221733333333</v>
       </c>
       <c r="N13">
-        <v>25.4009382448175</v>
+        <v>76.29665199999999</v>
       </c>
       <c r="O13">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966257</v>
       </c>
       <c r="P13">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966258</v>
       </c>
       <c r="Q13">
-        <v>632.5103930476345</v>
+        <v>679.5864529186968</v>
       </c>
       <c r="R13">
-        <v>632.5103930476345</v>
+        <v>6116.278076268271</v>
       </c>
       <c r="S13">
-        <v>0.05198683272133177</v>
+        <v>0.05050738410649484</v>
       </c>
       <c r="T13">
-        <v>0.05198683272133177</v>
+        <v>0.05050738410649486</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.1494385347762</v>
+        <v>13.65680433333333</v>
       </c>
       <c r="H14">
-        <v>13.1494385347762</v>
+        <v>40.970413</v>
       </c>
       <c r="I14">
-        <v>0.1544486774896183</v>
+        <v>0.154034782011531</v>
       </c>
       <c r="J14">
-        <v>0.1544486774896183</v>
+        <v>0.154034782011531</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N14">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O14">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P14">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q14">
-        <v>130.7487983719364</v>
+        <v>209.7526817715095</v>
       </c>
       <c r="R14">
-        <v>130.7487983719364</v>
+        <v>1887.774135943586</v>
       </c>
       <c r="S14">
-        <v>0.01074640983640737</v>
+        <v>0.01558897947435754</v>
       </c>
       <c r="T14">
-        <v>0.01074640983640737</v>
+        <v>0.01558897947435754</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.1494385347762</v>
+        <v>13.65680433333333</v>
       </c>
       <c r="H15">
-        <v>13.1494385347762</v>
+        <v>40.970413</v>
       </c>
       <c r="I15">
-        <v>0.1544486774896183</v>
+        <v>0.154034782011531</v>
       </c>
       <c r="J15">
-        <v>0.1544486774896183</v>
+        <v>0.154034782011531</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N15">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O15">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P15">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q15">
-        <v>665.0029514845883</v>
+        <v>690.9327563741803</v>
       </c>
       <c r="R15">
-        <v>665.0029514845883</v>
+        <v>6218.394807367622</v>
       </c>
       <c r="S15">
-        <v>0.05465743737655487</v>
+        <v>0.05135065004323286</v>
       </c>
       <c r="T15">
-        <v>0.05465743737655487</v>
+        <v>0.05135065004323287</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.1494385347762</v>
+        <v>13.65680433333333</v>
       </c>
       <c r="H16">
-        <v>13.1494385347762</v>
+        <v>40.970413</v>
       </c>
       <c r="I16">
-        <v>0.1544486774896183</v>
+        <v>0.154034782011531</v>
       </c>
       <c r="J16">
-        <v>0.1544486774896183</v>
+        <v>0.154034782011531</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N16">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O16">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P16">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q16">
-        <v>749.3774206681586</v>
+        <v>824.5590147996789</v>
       </c>
       <c r="R16">
-        <v>749.3774206681586</v>
+        <v>7421.031133197111</v>
       </c>
       <c r="S16">
-        <v>0.06159228218481574</v>
+        <v>0.0612818556051216</v>
       </c>
       <c r="T16">
-        <v>0.06159228218481574</v>
+        <v>0.06128185560512162</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.1494385347762</v>
+        <v>13.65680433333333</v>
       </c>
       <c r="H17">
-        <v>13.1494385347762</v>
+        <v>40.970413</v>
       </c>
       <c r="I17">
-        <v>0.1544486774896183</v>
+        <v>0.154034782011531</v>
       </c>
       <c r="J17">
-        <v>0.1544486774896183</v>
+        <v>0.154034782011531</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.4009382448175</v>
+        <v>25.43221733333333</v>
       </c>
       <c r="N17">
-        <v>25.4009382448175</v>
+        <v>76.29665199999999</v>
       </c>
       <c r="O17">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966257</v>
       </c>
       <c r="P17">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966258</v>
       </c>
       <c r="Q17">
-        <v>334.0080761758738</v>
+        <v>347.3228158841417</v>
       </c>
       <c r="R17">
-        <v>334.0080761758738</v>
+        <v>3125.905342957276</v>
       </c>
       <c r="S17">
-        <v>0.02745254809184029</v>
+        <v>0.025813296888819</v>
       </c>
       <c r="T17">
-        <v>0.02745254809184029</v>
+        <v>0.025813296888819</v>
       </c>
     </row>
   </sheetData>
